--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851BC85-DDDA-584D-8770-642FDE2141D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173B714-7048-674E-8899-10FCF08CFB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="460" windowWidth="23560" windowHeight="16940" xr2:uid="{137CCB5E-00E7-C843-B288-CA3B38049E58}"/>
+    <workbookView xWindow="3400" yWindow="460" windowWidth="23560" windowHeight="16940" xr2:uid="{137CCB5E-00E7-C843-B288-CA3B38049E58}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,18 +184,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://testcms31.ottcn.com:30012/api/v31/dcf09be0f8993e896ba4de940f1692c3/50000138/page/{$globle_programsetid}.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>globle_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://testcms31.ottcn.com:30012/api/v31/dcf09be0f8993e896ba4de940f1692c3/50000138/content/24/34/{$replace_programsetlayoutCode}.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加投放-定向到应用版本号-节目集综艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,14 +265,6 @@
   </si>
   <si>
     <t>percent</t>
-  </si>
-  <si>
-    <t>调cms接口-导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{$globle_index}</t>
@@ -316,116 +300,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>global_index_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{$return_value}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{$global_index_data}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>each</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_index_data_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_index_data_layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到页面地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调cms接口-页面</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>http://testcms31.ottcn.com:30012/api/v31/dcf09be0f8993e896ba4de940f1692c3/50000138/page/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testcms31.ottcn.com:30012/api/v31/dcf09be0f8993e896ba4de940f1692c3/50000138/content/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历测试导航、下级页面即内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{$globle_page}</t>
-  </si>
-  <si>
-    <t>global_content_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>globle_programset_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://testcms31.ottcn.com:30012/api/v31/dcf09be0f8993e896ba4de940f1692c3/50000138/page/{$globle_programset_id}.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{$global_content_type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_page_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{$global_page_data}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从导航页返回值中遍历所有data节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从页面也返回值中遍历所有data节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_page_data_layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_page_data_programs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{$globle_content}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,13 +377,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -507,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,9 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -546,9 +439,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,19 +757,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248566A-34EA-0B42-BCF9-3CB339CD7EEE}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="71.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
@@ -897,7 +789,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -926,7 +818,7 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1"/>
@@ -939,10 +831,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -954,10 +846,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -969,9 +861,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="10">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9">
         <v>1071</v>
       </c>
       <c r="F5" s="1"/>
@@ -984,9 +876,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="10">
+        <v>60</v>
+      </c>
+      <c r="E6" s="9">
         <v>1004000000</v>
       </c>
       <c r="F6" s="1"/>
@@ -999,10 +891,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1014,9 +906,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="10">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9">
         <v>123</v>
       </c>
       <c r="F8" s="1"/>
@@ -1033,7 +925,7 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1"/>
@@ -1048,7 +940,7 @@
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="1"/>
@@ -1056,30 +948,30 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="34">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
+      <c r="E11" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="34">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1091,7 +983,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1110,7 +1002,7 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1"/>
@@ -1123,7 +1015,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1142,7 +1034,7 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
@@ -1155,7 +1047,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1174,7 +1066,7 @@
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1"/>
@@ -1187,7 +1079,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1206,7 +1098,7 @@
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="1"/>
@@ -1219,7 +1111,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1227,25 +1119,25 @@
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1253,10 +1145,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1266,9 +1158,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="10">
+        <v>40</v>
+      </c>
+      <c r="E24" s="9">
         <v>8</v>
       </c>
       <c r="F24" s="1"/>
@@ -1279,9 +1171,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="10">
+        <v>41</v>
+      </c>
+      <c r="E25" s="9">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
@@ -1292,9 +1184,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="10">
+        <v>42</v>
+      </c>
+      <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="1"/>
@@ -1305,10 +1197,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1318,10 +1210,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1331,9 +1223,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="10">
+        <v>47</v>
+      </c>
+      <c r="E29" s="9">
         <v>4</v>
       </c>
       <c r="F29" s="1"/>
@@ -1344,9 +1236,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="10">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9">
         <v>2</v>
       </c>
       <c r="F30" s="1"/>
@@ -1357,10 +1249,10 @@
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1370,9 +1262,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="10">
+        <v>51</v>
+      </c>
+      <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="1"/>
@@ -1383,9 +1275,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="10">
+        <v>52</v>
+      </c>
+      <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33" s="1"/>
@@ -1396,9 +1288,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="10">
+        <v>53</v>
+      </c>
+      <c r="E34" s="9">
         <v>100</v>
       </c>
       <c r="F34" s="1"/>
@@ -1409,175 +1301,49 @@
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="10">
+        <v>36</v>
+      </c>
+      <c r="E35" s="9">
         <v>2</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="17">
+    <row r="37" spans="1:9" ht="34">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="10"/>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="34">
-      <c r="A39" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="H40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="H41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="H42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="34">
-      <c r="A44" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17">
-      <c r="A48" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="34">
-      <c r="A50" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="H51" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173B714-7048-674E-8899-10FCF08CFB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D234B-6B49-7346-A001-E6A391FDF58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="460" windowWidth="23560" windowHeight="16940" xr2:uid="{137CCB5E-00E7-C843-B288-CA3B38049E58}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,14 @@
   </si>
   <si>
     <t>{$globle_content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点击调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248566A-34EA-0B42-BCF9-3CB339CD7EEE}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1345,6 +1353,17 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
+    <row r="40" spans="1:9" ht="17">
+      <c r="A40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ADInterface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D234B-6B49-7346-A001-E6A391FDF58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="460" windowWidth="23560" windowHeight="16940" xr2:uid="{137CCB5E-00E7-C843-B288-CA3B38049E58}"/>
+    <workbookView xWindow="3405" yWindow="465" windowWidth="23565" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,8 +342,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,27 +763,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248566A-34EA-0B42-BCF9-3CB339CD7EEE}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="71.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="71.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -813,477 +812,477 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="51">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="17">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1071</v>
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1004000000</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1071</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9">
-        <v>123</v>
+        <v>1004000000</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="34">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="9"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="34">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="34">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="9">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="34">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="9">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
@@ -1291,78 +1290,80 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="9">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E35" s="9">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="34">
-      <c r="A37" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="17">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="17">
-      <c r="A40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,15 +15,10 @@
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -767,7 +762,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ADInterface\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFAD264-958C-4746-AA08-2CE62281A240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="465" windowWidth="23565" windowHeight="16935"/>
+    <workbookView xWindow="6540" yWindow="460" windowWidth="23560" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,12 +333,52 @@
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>levelOneChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelTwoChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelOneCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelTwoCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["97", "98"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -758,27 +798,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="71.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -807,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -817,548 +857,624 @@
       <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
+    <row r="3" spans="1:9" ht="17">
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9">
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="17">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1071</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1004000000</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="51">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1071</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>19</v>
+    <row r="15" spans="1:9" ht="17">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1004000000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="34">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
+    <row r="19" spans="1:9" ht="17">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="10"/>
+    <row r="22" spans="1:9" ht="17">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="17">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="9">
-        <v>8</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="34">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="34">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E30" s="9">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="E32" s="9">
+        <v>8</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E33" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E34" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="9">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="34">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="9">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="9">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="34">
+      <c r="A45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="17">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFAD264-958C-4746-AA08-2CE62281A240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF63F15-2AA5-D14D-A3A2-036835D39E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="460" windowWidth="23560" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="460" windowWidth="23560" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>levelTwoChannel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,7 +366,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["97", "98"]</t>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[988,999]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +802,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -860,21 +860,21 @@
       <c r="D2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9">
       <c r="D3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="3"/>
@@ -892,7 +892,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -902,7 +902,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
@@ -922,7 +922,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF63F15-2AA5-D14D-A3A2-036835D39E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BCDF84-9254-CC40-8ED9-17B176D33D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="23560" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,14 @@
   </si>
   <si>
     <t>[988,999]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['精选', 'qqqyyyjjjgggfff', [['009'], ['002'], ['003'], ['008'], ['005'], ['011'], ['009'], ['003', 2]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -940,62 +948,59 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:9" ht="34">
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="17">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="51">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1007,10 +1012,10 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1071</v>
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1022,72 +1027,72 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9">
-        <v>1004000000</v>
+        <v>1071</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1004000000</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="34">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:9" ht="17">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>29</v>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="34">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1099,200 +1104,202 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="9"/>
+    <row r="23" spans="1:9" ht="17">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="17">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="9"/>
+    <row r="25" spans="1:9" ht="17">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="34">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="9"/>
+    <row r="27" spans="1:9" ht="34">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="17">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="1:9" ht="17">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="34">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="34">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="9">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1302,10 +1309,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1315,49 +1322,49 @@
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="17">
+    <row r="35" spans="1:9">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="34">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="34">
       <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="9">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1367,36 +1374,36 @@
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="17">
+    <row r="39" spans="1:9">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="4"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1404,9 +1411,9 @@
     <row r="41" spans="1:9">
       <c r="A41" s="4"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
@@ -1419,10 +1426,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="9">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1432,49 +1439,62 @@
       <c r="B43" s="1"/>
       <c r="C43" s="4"/>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E43" s="9">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="34">
-      <c r="A45" s="4" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="34">
+      <c r="A46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="17">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="17">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BCDF84-9254-CC40-8ED9-17B176D33D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBCD4B-48E4-2042-A6B0-CDC603BA80C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="460" windowWidth="23560" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,10 +371,6 @@
   </si>
   <si>
     <t>[988,999]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['精选', 'qqqyyyjjjgggfff', [['009'], ['002'], ['003'], ['008'], ['005'], ['011'], ['009'], ['003', 2]]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -810,7 +806,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -948,13 +944,11 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="34">
+    <row r="10" spans="1:9">
       <c r="D10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBCD4B-48E4-2042-A6B0-CDC603BA80C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB4D2A-EBDD-F544-AB94-3AECE80EF472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="32780" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例样例" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,174 @@
   </si>
   <si>
     <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_app_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_channel_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_index_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_page_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_content_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_subcontent_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_category_tree_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_device_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_app_package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_app_activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_app_wait_activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_webdriver_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8acb5c18e56c1988723297b1a8dc9260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14499M580068257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.newtv.cboxtv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.newtv.cboxtv.EntryActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.newtv.cboxtv.MainActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4723/wd/hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testcms31.ottcn.com:30012/api/v31/{$global_app_key}/{$global_channel_code}/navigation/index.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testcms31.ottcn.com:30012/api/v31/{$global_app_key}/{$global_channel_code}/page/{page_id}.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testcms31.ottcn.com:30012/api/v31/{$global_app_key}/{$global_channel_code}/content/{left_content}/{right_content}/{content_id}.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testcms31.ottcn.com:30012/api/v31/{$global_app_key}/{$global_channel_code}/detailsubcontents/{content_id}.json?subcontenttype=subcontents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://testcms31.ottcn.com:30012/api/v31/{$global_app_key}/{$global_channel_code}/categorytree/categorytree.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序启动页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序等待页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webdriver链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目树地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节目集地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ip地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_device_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_sdk_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adsdk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +654,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -814,8 +985,8 @@
     <col min="1" max="1" width="21" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="71.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="87.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
@@ -852,643 +1023,896 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
-      <c r="A2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="17">
+      <c r="A3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="17">
+      <c r="A4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="17">
+      <c r="A5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="17">
+      <c r="A6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="17">
+      <c r="A7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="17">
+      <c r="A8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="17">
+      <c r="A9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="17">
+      <c r="A10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:9" ht="17">
+      <c r="A11" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="17">
+      <c r="A13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="17">
+      <c r="A14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17">
+      <c r="A15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="17">
+      <c r="A17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="A27" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="51">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1071</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1004000000</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="34">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="17">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="34">
-      <c r="A27" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="17">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>27</v>
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1071</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="34">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>35</v>
+    <row r="31" spans="1:9" ht="17">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>1004000000</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>39</v>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="17">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="9">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="34">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1</v>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="17">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>44</v>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="34">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="17">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="9">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="17">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="9">
-        <v>2</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="4"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="34">
+      <c r="A42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="9">
-        <v>100</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="4"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="17">
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="9">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="34">
       <c r="A46" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" ht="17">
+        <v>35</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="4"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="9">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="17">
+      <c r="A51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="34">
+      <c r="A52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="9">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="17">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="9">
+        <v>100</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="34">
+      <c r="A61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="17">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
